--- a/data_voor_swing/aggregatietabellen/politiezone_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/politiezone_gewest.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
     <row r="26" spans="1:2" s="0" outlineLevel="0">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ipz17</t>
+          <t>ipz18</t>
         </is>
       </c>
       <c r="B26" s="23">
@@ -653,7 +653,7 @@
     <row r="27" spans="1:2" s="0" outlineLevel="0">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ipz18</t>
+          <t>ipz19</t>
         </is>
       </c>
       <c r="B27" s="23">
@@ -663,7 +663,7 @@
     <row r="28" spans="1:2" s="0" outlineLevel="0">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ipz19</t>
+          <t>ipz2</t>
         </is>
       </c>
       <c r="B28" s="23">
@@ -673,7 +673,7 @@
     <row r="29" spans="1:2" s="0" outlineLevel="0">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ipz2</t>
+          <t>ipz20</t>
         </is>
       </c>
       <c r="B29" s="23">
@@ -683,7 +683,7 @@
     <row r="30" spans="1:2" s="0" outlineLevel="0">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ipz20</t>
+          <t>ipz21</t>
         </is>
       </c>
       <c r="B30" s="23">
@@ -693,7 +693,7 @@
     <row r="31" spans="1:2" s="0" outlineLevel="0">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ipz21</t>
+          <t>ipz22</t>
         </is>
       </c>
       <c r="B31" s="23">
@@ -703,7 +703,7 @@
     <row r="32" spans="1:2" s="0" outlineLevel="0">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ipz22</t>
+          <t>ipz23</t>
         </is>
       </c>
       <c r="B32" s="23">
@@ -713,7 +713,7 @@
     <row r="33" spans="1:2" s="0" outlineLevel="0">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ipz23</t>
+          <t>ipz24</t>
         </is>
       </c>
       <c r="B33" s="23">
@@ -723,17 +723,17 @@
     <row r="34" spans="1:2" s="0" outlineLevel="0">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ipz24</t>
+          <t>ipz25</t>
         </is>
       </c>
       <c r="B34" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="0" outlineLevel="0">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ipz25</t>
+          <t>ipz26</t>
         </is>
       </c>
       <c r="B35" s="23">
@@ -743,7 +743,7 @@
     <row r="36" spans="1:2" s="0" outlineLevel="0">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ipz26</t>
+          <t>ipz27</t>
         </is>
       </c>
       <c r="B36" s="23">
@@ -753,7 +753,7 @@
     <row r="37" spans="1:2" s="0" outlineLevel="0">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ipz27</t>
+          <t>ipz28</t>
         </is>
       </c>
       <c r="B37" s="23">
@@ -763,7 +763,7 @@
     <row r="38" spans="1:2" s="0" outlineLevel="0">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ipz28</t>
+          <t>ipz29</t>
         </is>
       </c>
       <c r="B38" s="23">
@@ -773,37 +773,37 @@
     <row r="39" spans="1:2" s="0" outlineLevel="0">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ipz29</t>
+          <t>ipz3</t>
         </is>
       </c>
       <c r="B39" s="23">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="0" outlineLevel="0">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ipz3</t>
+          <t>ipz30</t>
         </is>
       </c>
       <c r="B40" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="0" outlineLevel="0">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ipz30</t>
+          <t>ipz31</t>
         </is>
       </c>
       <c r="B41" s="23">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="0" outlineLevel="0">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ipz31</t>
+          <t>ipz32</t>
         </is>
       </c>
       <c r="B42" s="23">
@@ -813,7 +813,7 @@
     <row r="43" spans="1:2" s="0" outlineLevel="0">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ipz32</t>
+          <t>ipz33</t>
         </is>
       </c>
       <c r="B43" s="23">
@@ -823,7 +823,7 @@
     <row r="44" spans="1:2" s="0" outlineLevel="0">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ipz33</t>
+          <t>ipz34</t>
         </is>
       </c>
       <c r="B44" s="23">
@@ -833,7 +833,7 @@
     <row r="45" spans="1:2" s="0" outlineLevel="0">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ipz34</t>
+          <t>ipz35</t>
         </is>
       </c>
       <c r="B45" s="23">
@@ -843,7 +843,7 @@
     <row r="46" spans="1:2" s="0" outlineLevel="0">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ipz35</t>
+          <t>ipz36</t>
         </is>
       </c>
       <c r="B46" s="23">
@@ -853,7 +853,7 @@
     <row r="47" spans="1:2" s="0" outlineLevel="0">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ipz36</t>
+          <t>ipz37</t>
         </is>
       </c>
       <c r="B47" s="23">
@@ -863,7 +863,7 @@
     <row r="48" spans="1:2" s="0" outlineLevel="0">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ipz37</t>
+          <t>ipz38</t>
         </is>
       </c>
       <c r="B48" s="23">
@@ -873,7 +873,7 @@
     <row r="49" spans="1:2" s="0" outlineLevel="0">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ipz38</t>
+          <t>ipz39</t>
         </is>
       </c>
       <c r="B49" s="23">
@@ -883,7 +883,7 @@
     <row r="50" spans="1:2" s="0" outlineLevel="0">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ipz39</t>
+          <t>ipz4</t>
         </is>
       </c>
       <c r="B50" s="23">
@@ -893,7 +893,7 @@
     <row r="51" spans="1:2" s="0" outlineLevel="0">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ipz4</t>
+          <t>ipz40</t>
         </is>
       </c>
       <c r="B51" s="23">
@@ -903,7 +903,7 @@
     <row r="52" spans="1:2" s="0" outlineLevel="0">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ipz40</t>
+          <t>ipz41</t>
         </is>
       </c>
       <c r="B52" s="23">
@@ -913,7 +913,7 @@
     <row r="53" spans="1:2" s="0" outlineLevel="0">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ipz41</t>
+          <t>ipz42</t>
         </is>
       </c>
       <c r="B53" s="23">
@@ -923,7 +923,7 @@
     <row r="54" spans="1:2" s="0" outlineLevel="0">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ipz42</t>
+          <t>ipz43</t>
         </is>
       </c>
       <c r="B54" s="23">
@@ -933,7 +933,7 @@
     <row r="55" spans="1:2" s="0" outlineLevel="0">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ipz43</t>
+          <t>ipz44</t>
         </is>
       </c>
       <c r="B55" s="23">
@@ -943,7 +943,7 @@
     <row r="56" spans="1:2" s="0" outlineLevel="0">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ipz44</t>
+          <t>ipz45</t>
         </is>
       </c>
       <c r="B56" s="23">
@@ -953,7 +953,7 @@
     <row r="57" spans="1:2" s="0" outlineLevel="0">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ipz45</t>
+          <t>ipz46</t>
         </is>
       </c>
       <c r="B57" s="23">
@@ -963,7 +963,7 @@
     <row r="58" spans="1:2" s="0" outlineLevel="0">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ipz46</t>
+          <t>ipz47</t>
         </is>
       </c>
       <c r="B58" s="23">
@@ -973,7 +973,7 @@
     <row r="59" spans="1:2" s="0" outlineLevel="0">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ipz47</t>
+          <t>ipz48</t>
         </is>
       </c>
       <c r="B59" s="23">
@@ -983,7 +983,7 @@
     <row r="60" spans="1:2" s="0" outlineLevel="0">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ipz48</t>
+          <t>ipz49</t>
         </is>
       </c>
       <c r="B60" s="23">
@@ -993,7 +993,7 @@
     <row r="61" spans="1:2" s="0" outlineLevel="0">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ipz49</t>
+          <t>ipz5</t>
         </is>
       </c>
       <c r="B61" s="23">
@@ -1003,7 +1003,7 @@
     <row r="62" spans="1:2" s="0" outlineLevel="0">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ipz5</t>
+          <t>ipz50</t>
         </is>
       </c>
       <c r="B62" s="23">
@@ -1013,7 +1013,7 @@
     <row r="63" spans="1:2" s="0" outlineLevel="0">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ipz50</t>
+          <t>ipz51</t>
         </is>
       </c>
       <c r="B63" s="23">
@@ -1023,7 +1023,7 @@
     <row r="64" spans="1:2" s="0" outlineLevel="0">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ipz51</t>
+          <t>ipz52</t>
         </is>
       </c>
       <c r="B64" s="23">
@@ -1033,7 +1033,7 @@
     <row r="65" spans="1:2" s="0" outlineLevel="0">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ipz52</t>
+          <t>ipz54</t>
         </is>
       </c>
       <c r="B65" s="23">
@@ -1043,7 +1043,7 @@
     <row r="66" spans="1:2" s="0" outlineLevel="0">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ipz53</t>
+          <t>ipz55</t>
         </is>
       </c>
       <c r="B66" s="23">
@@ -1053,7 +1053,7 @@
     <row r="67" spans="1:2" s="0" outlineLevel="0">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ipz54</t>
+          <t>ipz56</t>
         </is>
       </c>
       <c r="B67" s="23">
@@ -1063,7 +1063,7 @@
     <row r="68" spans="1:2" s="0" outlineLevel="0">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ipz55</t>
+          <t>ipz57</t>
         </is>
       </c>
       <c r="B68" s="23">
@@ -1073,7 +1073,7 @@
     <row r="69" spans="1:2" s="0" outlineLevel="0">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ipz56</t>
+          <t>ipz58</t>
         </is>
       </c>
       <c r="B69" s="23">
@@ -1083,7 +1083,7 @@
     <row r="70" spans="1:2" s="0" outlineLevel="0">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ipz57</t>
+          <t>ipz59</t>
         </is>
       </c>
       <c r="B70" s="23">
@@ -1093,7 +1093,7 @@
     <row r="71" spans="1:2" s="0" outlineLevel="0">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ipz58</t>
+          <t>ipz6</t>
         </is>
       </c>
       <c r="B71" s="23">
@@ -1103,7 +1103,7 @@
     <row r="72" spans="1:2" s="0" outlineLevel="0">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ipz59</t>
+          <t>ipz60</t>
         </is>
       </c>
       <c r="B72" s="23">
@@ -1113,7 +1113,7 @@
     <row r="73" spans="1:2" s="0" outlineLevel="0">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ipz6</t>
+          <t>ipz61</t>
         </is>
       </c>
       <c r="B73" s="23">
@@ -1123,7 +1123,7 @@
     <row r="74" spans="1:2" s="0" outlineLevel="0">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ipz60</t>
+          <t>ipz62</t>
         </is>
       </c>
       <c r="B74" s="23">
@@ -1133,7 +1133,7 @@
     <row r="75" spans="1:2" s="0" outlineLevel="0">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ipz61</t>
+          <t>ipz63</t>
         </is>
       </c>
       <c r="B75" s="23">
@@ -1143,7 +1143,7 @@
     <row r="76" spans="1:2" s="0" outlineLevel="0">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ipz62</t>
+          <t>ipz64</t>
         </is>
       </c>
       <c r="B76" s="23">
@@ -1153,7 +1153,7 @@
     <row r="77" spans="1:2" s="0" outlineLevel="0">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ipz63</t>
+          <t>ipz65</t>
         </is>
       </c>
       <c r="B77" s="23">
@@ -1163,7 +1163,7 @@
     <row r="78" spans="1:2" s="0" outlineLevel="0">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ipz64</t>
+          <t>ipz66</t>
         </is>
       </c>
       <c r="B78" s="23">
@@ -1173,7 +1173,7 @@
     <row r="79" spans="1:2" s="0" outlineLevel="0">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ipz65</t>
+          <t>ipz67</t>
         </is>
       </c>
       <c r="B79" s="23">
@@ -1183,7 +1183,7 @@
     <row r="80" spans="1:2" s="0" outlineLevel="0">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ipz66</t>
+          <t>ipz68</t>
         </is>
       </c>
       <c r="B80" s="23">
@@ -1193,7 +1193,7 @@
     <row r="81" spans="1:2" s="0" outlineLevel="0">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ipz67</t>
+          <t>ipz69</t>
         </is>
       </c>
       <c r="B81" s="23">
@@ -1203,7 +1203,7 @@
     <row r="82" spans="1:2" s="0" outlineLevel="0">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ipz68</t>
+          <t>ipz7</t>
         </is>
       </c>
       <c r="B82" s="23">
@@ -1213,7 +1213,7 @@
     <row r="83" spans="1:2" s="0" outlineLevel="0">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ipz69</t>
+          <t>ipz70</t>
         </is>
       </c>
       <c r="B83" s="23">
@@ -1223,7 +1223,7 @@
     <row r="84" spans="1:2" s="0" outlineLevel="0">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ipz7</t>
+          <t>ipz71</t>
         </is>
       </c>
       <c r="B84" s="23">
@@ -1233,7 +1233,7 @@
     <row r="85" spans="1:2" s="0" outlineLevel="0">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ipz70</t>
+          <t>ipz72</t>
         </is>
       </c>
       <c r="B85" s="23">
@@ -1243,7 +1243,7 @@
     <row r="86" spans="1:2" s="0" outlineLevel="0">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ipz71</t>
+          <t>ipz73</t>
         </is>
       </c>
       <c r="B86" s="23">
@@ -1253,7 +1253,7 @@
     <row r="87" spans="1:2" s="0" outlineLevel="0">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ipz72</t>
+          <t>ipz74</t>
         </is>
       </c>
       <c r="B87" s="23">
@@ -1263,7 +1263,7 @@
     <row r="88" spans="1:2" s="0" outlineLevel="0">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ipz73</t>
+          <t>ipz75</t>
         </is>
       </c>
       <c r="B88" s="23">
@@ -1273,7 +1273,7 @@
     <row r="89" spans="1:2" s="0" outlineLevel="0">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ipz74</t>
+          <t>ipz76</t>
         </is>
       </c>
       <c r="B89" s="23">
@@ -1283,7 +1283,7 @@
     <row r="90" spans="1:2" s="0" outlineLevel="0">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ipz75</t>
+          <t>ipz77</t>
         </is>
       </c>
       <c r="B90" s="23">
@@ -1293,7 +1293,7 @@
     <row r="91" spans="1:2" s="0" outlineLevel="0">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ipz76</t>
+          <t>ipz78</t>
         </is>
       </c>
       <c r="B91" s="23">
@@ -1303,7 +1303,7 @@
     <row r="92" spans="1:2" s="0" outlineLevel="0">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ipz77</t>
+          <t>ipz79</t>
         </is>
       </c>
       <c r="B92" s="23">
@@ -1313,7 +1313,7 @@
     <row r="93" spans="1:2" s="0" outlineLevel="0">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ipz78</t>
+          <t>ipz8</t>
         </is>
       </c>
       <c r="B93" s="23">
@@ -1323,7 +1323,7 @@
     <row r="94" spans="1:2" s="0" outlineLevel="0">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ipz79</t>
+          <t>ipz80</t>
         </is>
       </c>
       <c r="B94" s="23">
@@ -1333,7 +1333,7 @@
     <row r="95" spans="1:2" s="0" outlineLevel="0">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ipz8</t>
+          <t>ipz81</t>
         </is>
       </c>
       <c r="B95" s="23">
@@ -1343,7 +1343,7 @@
     <row r="96" spans="1:2" s="0" outlineLevel="0">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ipz80</t>
+          <t>ipz82</t>
         </is>
       </c>
       <c r="B96" s="23">
@@ -1353,7 +1353,7 @@
     <row r="97" spans="1:2" s="0" outlineLevel="0">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ipz81</t>
+          <t>ipz83</t>
         </is>
       </c>
       <c r="B97" s="23">
@@ -1363,7 +1363,7 @@
     <row r="98" spans="1:2" s="0" outlineLevel="0">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ipz82</t>
+          <t>ipz84</t>
         </is>
       </c>
       <c r="B98" s="23">
@@ -1373,7 +1373,7 @@
     <row r="99" spans="1:2" s="0" outlineLevel="0">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ipz83</t>
+          <t>ipz85</t>
         </is>
       </c>
       <c r="B99" s="23">
@@ -1383,7 +1383,7 @@
     <row r="100" spans="1:2" s="0" outlineLevel="0">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ipz84</t>
+          <t>ipz86</t>
         </is>
       </c>
       <c r="B100" s="23">
@@ -1393,7 +1393,7 @@
     <row r="101" spans="1:2" s="0" outlineLevel="0">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ipz85</t>
+          <t>ipz87</t>
         </is>
       </c>
       <c r="B101" s="23">
@@ -1403,7 +1403,7 @@
     <row r="102" spans="1:2" s="0" outlineLevel="0">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ipz86</t>
+          <t>ipz88</t>
         </is>
       </c>
       <c r="B102" s="23">
@@ -1413,7 +1413,7 @@
     <row r="103" spans="1:2" s="0" outlineLevel="0">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ipz87</t>
+          <t>ipz89</t>
         </is>
       </c>
       <c r="B103" s="23">
@@ -1423,7 +1423,7 @@
     <row r="104" spans="1:2" s="0" outlineLevel="0">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ipz88</t>
+          <t>ipz9</t>
         </is>
       </c>
       <c r="B104" s="23">
@@ -1433,7 +1433,7 @@
     <row r="105" spans="1:2" s="0" outlineLevel="0">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ipz89</t>
+          <t>ipz90</t>
         </is>
       </c>
       <c r="B105" s="23">
@@ -1443,7 +1443,7 @@
     <row r="106" spans="1:2" s="0" outlineLevel="0">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ipz9</t>
+          <t>ipz91</t>
         </is>
       </c>
       <c r="B106" s="23">
@@ -1453,7 +1453,7 @@
     <row r="107" spans="1:2" s="0" outlineLevel="0">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ipz90</t>
+          <t>ipz92</t>
         </is>
       </c>
       <c r="B107" s="23">
@@ -1463,7 +1463,7 @@
     <row r="108" spans="1:2" s="0" outlineLevel="0">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ipz91</t>
+          <t>ipz93</t>
         </is>
       </c>
       <c r="B108" s="23">
@@ -1473,7 +1473,7 @@
     <row r="109" spans="1:2" s="0" outlineLevel="0">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ipz92</t>
+          <t>ipz95</t>
         </is>
       </c>
       <c r="B109" s="23">
@@ -1483,7 +1483,7 @@
     <row r="110" spans="1:2" s="0" outlineLevel="0">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ipz93</t>
+          <t>ipz96</t>
         </is>
       </c>
       <c r="B110" s="23">
@@ -1493,7 +1493,7 @@
     <row r="111" spans="1:2" s="0" outlineLevel="0">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ipz95</t>
+          <t>ipz97</t>
         </is>
       </c>
       <c r="B111" s="23">
@@ -1503,7 +1503,7 @@
     <row r="112" spans="1:2" s="0" outlineLevel="0">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ipz96</t>
+          <t>ipz98</t>
         </is>
       </c>
       <c r="B112" s="23">
@@ -1513,7 +1513,7 @@
     <row r="113" spans="1:2" s="0" outlineLevel="0">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ipz97</t>
+          <t>ipz99</t>
         </is>
       </c>
       <c r="B113" s="23">
@@ -1523,7 +1523,7 @@
     <row r="114" spans="1:2" s="0" outlineLevel="0">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ipz98</t>
+          <t>ipz991</t>
         </is>
       </c>
       <c r="B114" s="23">
@@ -1533,40 +1533,20 @@
     <row r="115" spans="1:2" s="0" outlineLevel="0">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ipz99</t>
+          <t>ipz992</t>
         </is>
       </c>
       <c r="B115" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="0" outlineLevel="0">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ipz991</t>
+          <t>ipz999</t>
         </is>
       </c>
       <c r="B116" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="0" outlineLevel="0">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>ipz992</t>
-        </is>
-      </c>
-      <c r="B117" s="23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" s="0" outlineLevel="0">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>ipz999</t>
-        </is>
-      </c>
-      <c r="B118" s="23">
         <v>99999</v>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/politiezone_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/politiezone_gewest.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,10 +1543,20 @@
     <row r="116" spans="1:2" s="0" outlineLevel="0">
       <c r="A116" t="inlineStr">
         <is>
+          <t>ipz993</t>
+        </is>
+      </c>
+      <c r="B116" s="23">
+        <v>99993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="0" outlineLevel="0">
+      <c r="A117" t="inlineStr">
+        <is>
           <t>ipz999</t>
         </is>
       </c>
-      <c r="B116" s="23">
+      <c r="B117" s="23">
         <v>99999</v>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/politiezone_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/politiezone_gewest.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1393,7 @@
     <row r="101" spans="1:2" s="0" outlineLevel="0">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ipz87</t>
+          <t>ipz88</t>
         </is>
       </c>
       <c r="B101" s="23">
@@ -1403,7 +1403,7 @@
     <row r="102" spans="1:2" s="0" outlineLevel="0">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ipz88</t>
+          <t>ipz89</t>
         </is>
       </c>
       <c r="B102" s="23">
@@ -1413,7 +1413,7 @@
     <row r="103" spans="1:2" s="0" outlineLevel="0">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ipz89</t>
+          <t>ipz9</t>
         </is>
       </c>
       <c r="B103" s="23">
@@ -1423,7 +1423,7 @@
     <row r="104" spans="1:2" s="0" outlineLevel="0">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ipz9</t>
+          <t>ipz90</t>
         </is>
       </c>
       <c r="B104" s="23">
@@ -1433,7 +1433,7 @@
     <row r="105" spans="1:2" s="0" outlineLevel="0">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ipz90</t>
+          <t>ipz91</t>
         </is>
       </c>
       <c r="B105" s="23">
@@ -1443,7 +1443,7 @@
     <row r="106" spans="1:2" s="0" outlineLevel="0">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ipz91</t>
+          <t>ipz92</t>
         </is>
       </c>
       <c r="B106" s="23">
@@ -1453,7 +1453,7 @@
     <row r="107" spans="1:2" s="0" outlineLevel="0">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ipz92</t>
+          <t>ipz93</t>
         </is>
       </c>
       <c r="B107" s="23">
@@ -1463,7 +1463,7 @@
     <row r="108" spans="1:2" s="0" outlineLevel="0">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ipz93</t>
+          <t>ipz95</t>
         </is>
       </c>
       <c r="B108" s="23">
@@ -1473,7 +1473,7 @@
     <row r="109" spans="1:2" s="0" outlineLevel="0">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ipz95</t>
+          <t>ipz96</t>
         </is>
       </c>
       <c r="B109" s="23">
@@ -1483,7 +1483,7 @@
     <row r="110" spans="1:2" s="0" outlineLevel="0">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ipz96</t>
+          <t>ipz97</t>
         </is>
       </c>
       <c r="B110" s="23">
@@ -1493,7 +1493,7 @@
     <row r="111" spans="1:2" s="0" outlineLevel="0">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ipz97</t>
+          <t>ipz98</t>
         </is>
       </c>
       <c r="B111" s="23">
@@ -1503,7 +1503,7 @@
     <row r="112" spans="1:2" s="0" outlineLevel="0">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ipz98</t>
+          <t>ipz99</t>
         </is>
       </c>
       <c r="B112" s="23">
@@ -1513,7 +1513,7 @@
     <row r="113" spans="1:2" s="0" outlineLevel="0">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ipz99</t>
+          <t>ipz991</t>
         </is>
       </c>
       <c r="B113" s="23">
@@ -1523,40 +1523,30 @@
     <row r="114" spans="1:2" s="0" outlineLevel="0">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ipz991</t>
+          <t>ipz992</t>
         </is>
       </c>
       <c r="B114" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="0" outlineLevel="0">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ipz992</t>
+          <t>ipz993</t>
         </is>
       </c>
       <c r="B115" s="23">
-        <v>4000</v>
+        <v>99993</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="0" outlineLevel="0">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ipz993</t>
+          <t>ipz999</t>
         </is>
       </c>
       <c r="B116" s="23">
-        <v>99993</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="0" outlineLevel="0">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>ipz999</t>
-        </is>
-      </c>
-      <c r="B117" s="23">
         <v>99999</v>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/politiezone_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/politiezone_gewest.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +523,7 @@
     <row r="14" spans="1:2" s="0" outlineLevel="0">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ipz11</t>
+          <t>ipz110</t>
         </is>
       </c>
       <c r="B14" s="23">
@@ -533,7 +533,7 @@
     <row r="15" spans="1:2" s="0" outlineLevel="0">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ipz110</t>
+          <t>ipz111</t>
         </is>
       </c>
       <c r="B15" s="23">
@@ -543,7 +543,7 @@
     <row r="16" spans="1:2" s="0" outlineLevel="0">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ipz111</t>
+          <t>ipz112</t>
         </is>
       </c>
       <c r="B16" s="23">
@@ -553,7 +553,7 @@
     <row r="17" spans="1:2" s="0" outlineLevel="0">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ipz112</t>
+          <t>ipz114</t>
         </is>
       </c>
       <c r="B17" s="23">
@@ -563,7 +563,7 @@
     <row r="18" spans="1:2" s="0" outlineLevel="0">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ipz113</t>
+          <t>ipz115</t>
         </is>
       </c>
       <c r="B18" s="23">
@@ -573,7 +573,7 @@
     <row r="19" spans="1:2" s="0" outlineLevel="0">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ipz114</t>
+          <t>ipz12</t>
         </is>
       </c>
       <c r="B19" s="23">
@@ -583,7 +583,7 @@
     <row r="20" spans="1:2" s="0" outlineLevel="0">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ipz115</t>
+          <t>ipz13</t>
         </is>
       </c>
       <c r="B20" s="23">
@@ -593,7 +593,7 @@
     <row r="21" spans="1:2" s="0" outlineLevel="0">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ipz12</t>
+          <t>ipz14</t>
         </is>
       </c>
       <c r="B21" s="23">
@@ -603,7 +603,7 @@
     <row r="22" spans="1:2" s="0" outlineLevel="0">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ipz13</t>
+          <t>ipz15</t>
         </is>
       </c>
       <c r="B22" s="23">
@@ -613,7 +613,7 @@
     <row r="23" spans="1:2" s="0" outlineLevel="0">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ipz14</t>
+          <t>ipz16</t>
         </is>
       </c>
       <c r="B23" s="23">
@@ -623,7 +623,7 @@
     <row r="24" spans="1:2" s="0" outlineLevel="0">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ipz15</t>
+          <t>ipz18</t>
         </is>
       </c>
       <c r="B24" s="23">
@@ -633,7 +633,7 @@
     <row r="25" spans="1:2" s="0" outlineLevel="0">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ipz16</t>
+          <t>ipz19</t>
         </is>
       </c>
       <c r="B25" s="23">
@@ -643,7 +643,7 @@
     <row r="26" spans="1:2" s="0" outlineLevel="0">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ipz18</t>
+          <t>ipz2</t>
         </is>
       </c>
       <c r="B26" s="23">
@@ -653,7 +653,7 @@
     <row r="27" spans="1:2" s="0" outlineLevel="0">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ipz19</t>
+          <t>ipz20</t>
         </is>
       </c>
       <c r="B27" s="23">
@@ -663,7 +663,7 @@
     <row r="28" spans="1:2" s="0" outlineLevel="0">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ipz2</t>
+          <t>ipz21</t>
         </is>
       </c>
       <c r="B28" s="23">
@@ -673,7 +673,7 @@
     <row r="29" spans="1:2" s="0" outlineLevel="0">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ipz20</t>
+          <t>ipz22</t>
         </is>
       </c>
       <c r="B29" s="23">
@@ -683,7 +683,7 @@
     <row r="30" spans="1:2" s="0" outlineLevel="0">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ipz21</t>
+          <t>ipz23</t>
         </is>
       </c>
       <c r="B30" s="23">
@@ -693,7 +693,7 @@
     <row r="31" spans="1:2" s="0" outlineLevel="0">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ipz22</t>
+          <t>ipz24</t>
         </is>
       </c>
       <c r="B31" s="23">
@@ -703,27 +703,27 @@
     <row r="32" spans="1:2" s="0" outlineLevel="0">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ipz23</t>
+          <t>ipz25</t>
         </is>
       </c>
       <c r="B32" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="0" outlineLevel="0">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ipz24</t>
+          <t>ipz26</t>
         </is>
       </c>
       <c r="B33" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="0" outlineLevel="0">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ipz25</t>
+          <t>ipz27</t>
         </is>
       </c>
       <c r="B34" s="23">
@@ -733,7 +733,7 @@
     <row r="35" spans="1:2" s="0" outlineLevel="0">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ipz26</t>
+          <t>ipz28</t>
         </is>
       </c>
       <c r="B35" s="23">
@@ -743,7 +743,7 @@
     <row r="36" spans="1:2" s="0" outlineLevel="0">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ipz27</t>
+          <t>ipz29</t>
         </is>
       </c>
       <c r="B36" s="23">
@@ -753,17 +753,17 @@
     <row r="37" spans="1:2" s="0" outlineLevel="0">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ipz28</t>
+          <t>ipz3</t>
         </is>
       </c>
       <c r="B37" s="23">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="0" outlineLevel="0">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ipz29</t>
+          <t>ipz30</t>
         </is>
       </c>
       <c r="B38" s="23">
@@ -773,7 +773,7 @@
     <row r="39" spans="1:2" s="0" outlineLevel="0">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ipz3</t>
+          <t>ipz31</t>
         </is>
       </c>
       <c r="B39" s="23">
@@ -783,17 +783,17 @@
     <row r="40" spans="1:2" s="0" outlineLevel="0">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ipz30</t>
+          <t>ipz32</t>
         </is>
       </c>
       <c r="B40" s="23">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="0" outlineLevel="0">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ipz31</t>
+          <t>ipz33</t>
         </is>
       </c>
       <c r="B41" s="23">
@@ -803,7 +803,7 @@
     <row r="42" spans="1:2" s="0" outlineLevel="0">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ipz32</t>
+          <t>ipz34</t>
         </is>
       </c>
       <c r="B42" s="23">
@@ -813,7 +813,7 @@
     <row r="43" spans="1:2" s="0" outlineLevel="0">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ipz33</t>
+          <t>ipz35</t>
         </is>
       </c>
       <c r="B43" s="23">
@@ -823,7 +823,7 @@
     <row r="44" spans="1:2" s="0" outlineLevel="0">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ipz34</t>
+          <t>ipz36</t>
         </is>
       </c>
       <c r="B44" s="23">
@@ -833,7 +833,7 @@
     <row r="45" spans="1:2" s="0" outlineLevel="0">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ipz35</t>
+          <t>ipz37</t>
         </is>
       </c>
       <c r="B45" s="23">
@@ -843,7 +843,7 @@
     <row r="46" spans="1:2" s="0" outlineLevel="0">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ipz36</t>
+          <t>ipz38</t>
         </is>
       </c>
       <c r="B46" s="23">
@@ -853,7 +853,7 @@
     <row r="47" spans="1:2" s="0" outlineLevel="0">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ipz37</t>
+          <t>ipz39</t>
         </is>
       </c>
       <c r="B47" s="23">
@@ -863,7 +863,7 @@
     <row r="48" spans="1:2" s="0" outlineLevel="0">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ipz38</t>
+          <t>ipz4</t>
         </is>
       </c>
       <c r="B48" s="23">
@@ -873,7 +873,7 @@
     <row r="49" spans="1:2" s="0" outlineLevel="0">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ipz39</t>
+          <t>ipz40</t>
         </is>
       </c>
       <c r="B49" s="23">
@@ -883,7 +883,7 @@
     <row r="50" spans="1:2" s="0" outlineLevel="0">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ipz4</t>
+          <t>ipz41</t>
         </is>
       </c>
       <c r="B50" s="23">
@@ -893,7 +893,7 @@
     <row r="51" spans="1:2" s="0" outlineLevel="0">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ipz40</t>
+          <t>ipz42</t>
         </is>
       </c>
       <c r="B51" s="23">
@@ -903,7 +903,7 @@
     <row r="52" spans="1:2" s="0" outlineLevel="0">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ipz41</t>
+          <t>ipz43</t>
         </is>
       </c>
       <c r="B52" s="23">
@@ -913,7 +913,7 @@
     <row r="53" spans="1:2" s="0" outlineLevel="0">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ipz42</t>
+          <t>ipz44</t>
         </is>
       </c>
       <c r="B53" s="23">
@@ -923,7 +923,7 @@
     <row r="54" spans="1:2" s="0" outlineLevel="0">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ipz43</t>
+          <t>ipz45</t>
         </is>
       </c>
       <c r="B54" s="23">
@@ -933,7 +933,7 @@
     <row r="55" spans="1:2" s="0" outlineLevel="0">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ipz44</t>
+          <t>ipz46</t>
         </is>
       </c>
       <c r="B55" s="23">
@@ -943,7 +943,7 @@
     <row r="56" spans="1:2" s="0" outlineLevel="0">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ipz45</t>
+          <t>ipz47</t>
         </is>
       </c>
       <c r="B56" s="23">
@@ -953,7 +953,7 @@
     <row r="57" spans="1:2" s="0" outlineLevel="0">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ipz46</t>
+          <t>ipz48</t>
         </is>
       </c>
       <c r="B57" s="23">
@@ -963,7 +963,7 @@
     <row r="58" spans="1:2" s="0" outlineLevel="0">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ipz47</t>
+          <t>ipz49</t>
         </is>
       </c>
       <c r="B58" s="23">
@@ -973,7 +973,7 @@
     <row r="59" spans="1:2" s="0" outlineLevel="0">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ipz48</t>
+          <t>ipz5</t>
         </is>
       </c>
       <c r="B59" s="23">
@@ -983,7 +983,7 @@
     <row r="60" spans="1:2" s="0" outlineLevel="0">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ipz49</t>
+          <t>ipz50</t>
         </is>
       </c>
       <c r="B60" s="23">
@@ -993,7 +993,7 @@
     <row r="61" spans="1:2" s="0" outlineLevel="0">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ipz5</t>
+          <t>ipz51</t>
         </is>
       </c>
       <c r="B61" s="23">
@@ -1003,7 +1003,7 @@
     <row r="62" spans="1:2" s="0" outlineLevel="0">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ipz50</t>
+          <t>ipz52</t>
         </is>
       </c>
       <c r="B62" s="23">
@@ -1013,7 +1013,7 @@
     <row r="63" spans="1:2" s="0" outlineLevel="0">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ipz51</t>
+          <t>ipz54</t>
         </is>
       </c>
       <c r="B63" s="23">
@@ -1023,7 +1023,7 @@
     <row r="64" spans="1:2" s="0" outlineLevel="0">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ipz52</t>
+          <t>ipz55</t>
         </is>
       </c>
       <c r="B64" s="23">
@@ -1033,7 +1033,7 @@
     <row r="65" spans="1:2" s="0" outlineLevel="0">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ipz54</t>
+          <t>ipz56</t>
         </is>
       </c>
       <c r="B65" s="23">
@@ -1043,7 +1043,7 @@
     <row r="66" spans="1:2" s="0" outlineLevel="0">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ipz55</t>
+          <t>ipz57</t>
         </is>
       </c>
       <c r="B66" s="23">
@@ -1053,7 +1053,7 @@
     <row r="67" spans="1:2" s="0" outlineLevel="0">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ipz56</t>
+          <t>ipz58</t>
         </is>
       </c>
       <c r="B67" s="23">
@@ -1063,7 +1063,7 @@
     <row r="68" spans="1:2" s="0" outlineLevel="0">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ipz57</t>
+          <t>ipz59</t>
         </is>
       </c>
       <c r="B68" s="23">
@@ -1073,7 +1073,7 @@
     <row r="69" spans="1:2" s="0" outlineLevel="0">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ipz58</t>
+          <t>ipz6</t>
         </is>
       </c>
       <c r="B69" s="23">
@@ -1083,7 +1083,7 @@
     <row r="70" spans="1:2" s="0" outlineLevel="0">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ipz59</t>
+          <t>ipz60</t>
         </is>
       </c>
       <c r="B70" s="23">
@@ -1093,7 +1093,7 @@
     <row r="71" spans="1:2" s="0" outlineLevel="0">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ipz6</t>
+          <t>ipz61</t>
         </is>
       </c>
       <c r="B71" s="23">
@@ -1103,7 +1103,7 @@
     <row r="72" spans="1:2" s="0" outlineLevel="0">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ipz60</t>
+          <t>ipz62</t>
         </is>
       </c>
       <c r="B72" s="23">
@@ -1113,7 +1113,7 @@
     <row r="73" spans="1:2" s="0" outlineLevel="0">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ipz61</t>
+          <t>ipz63</t>
         </is>
       </c>
       <c r="B73" s="23">
@@ -1123,7 +1123,7 @@
     <row r="74" spans="1:2" s="0" outlineLevel="0">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ipz62</t>
+          <t>ipz64</t>
         </is>
       </c>
       <c r="B74" s="23">
@@ -1133,7 +1133,7 @@
     <row r="75" spans="1:2" s="0" outlineLevel="0">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ipz63</t>
+          <t>ipz65</t>
         </is>
       </c>
       <c r="B75" s="23">
@@ -1143,7 +1143,7 @@
     <row r="76" spans="1:2" s="0" outlineLevel="0">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ipz64</t>
+          <t>ipz66</t>
         </is>
       </c>
       <c r="B76" s="23">
@@ -1153,7 +1153,7 @@
     <row r="77" spans="1:2" s="0" outlineLevel="0">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ipz65</t>
+          <t>ipz67</t>
         </is>
       </c>
       <c r="B77" s="23">
@@ -1163,7 +1163,7 @@
     <row r="78" spans="1:2" s="0" outlineLevel="0">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ipz66</t>
+          <t>ipz68</t>
         </is>
       </c>
       <c r="B78" s="23">
@@ -1173,7 +1173,7 @@
     <row r="79" spans="1:2" s="0" outlineLevel="0">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ipz67</t>
+          <t>ipz69</t>
         </is>
       </c>
       <c r="B79" s="23">
@@ -1183,7 +1183,7 @@
     <row r="80" spans="1:2" s="0" outlineLevel="0">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ipz68</t>
+          <t>ipz7</t>
         </is>
       </c>
       <c r="B80" s="23">
@@ -1193,7 +1193,7 @@
     <row r="81" spans="1:2" s="0" outlineLevel="0">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ipz69</t>
+          <t>ipz70</t>
         </is>
       </c>
       <c r="B81" s="23">
@@ -1203,7 +1203,7 @@
     <row r="82" spans="1:2" s="0" outlineLevel="0">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ipz7</t>
+          <t>ipz71</t>
         </is>
       </c>
       <c r="B82" s="23">
@@ -1213,7 +1213,7 @@
     <row r="83" spans="1:2" s="0" outlineLevel="0">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ipz70</t>
+          <t>ipz72</t>
         </is>
       </c>
       <c r="B83" s="23">
@@ -1223,7 +1223,7 @@
     <row r="84" spans="1:2" s="0" outlineLevel="0">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ipz71</t>
+          <t>ipz73</t>
         </is>
       </c>
       <c r="B84" s="23">
@@ -1233,7 +1233,7 @@
     <row r="85" spans="1:2" s="0" outlineLevel="0">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ipz72</t>
+          <t>ipz74</t>
         </is>
       </c>
       <c r="B85" s="23">
@@ -1243,7 +1243,7 @@
     <row r="86" spans="1:2" s="0" outlineLevel="0">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ipz73</t>
+          <t>ipz75</t>
         </is>
       </c>
       <c r="B86" s="23">
@@ -1253,7 +1253,7 @@
     <row r="87" spans="1:2" s="0" outlineLevel="0">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ipz74</t>
+          <t>ipz76</t>
         </is>
       </c>
       <c r="B87" s="23">
@@ -1263,7 +1263,7 @@
     <row r="88" spans="1:2" s="0" outlineLevel="0">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ipz75</t>
+          <t>ipz77</t>
         </is>
       </c>
       <c r="B88" s="23">
@@ -1273,7 +1273,7 @@
     <row r="89" spans="1:2" s="0" outlineLevel="0">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ipz76</t>
+          <t>ipz78</t>
         </is>
       </c>
       <c r="B89" s="23">
@@ -1283,7 +1283,7 @@
     <row r="90" spans="1:2" s="0" outlineLevel="0">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ipz77</t>
+          <t>ipz79</t>
         </is>
       </c>
       <c r="B90" s="23">
@@ -1293,7 +1293,7 @@
     <row r="91" spans="1:2" s="0" outlineLevel="0">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ipz78</t>
+          <t>ipz8</t>
         </is>
       </c>
       <c r="B91" s="23">
@@ -1303,7 +1303,7 @@
     <row r="92" spans="1:2" s="0" outlineLevel="0">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ipz79</t>
+          <t>ipz80</t>
         </is>
       </c>
       <c r="B92" s="23">
@@ -1313,7 +1313,7 @@
     <row r="93" spans="1:2" s="0" outlineLevel="0">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ipz8</t>
+          <t>ipz81</t>
         </is>
       </c>
       <c r="B93" s="23">
@@ -1323,7 +1323,7 @@
     <row r="94" spans="1:2" s="0" outlineLevel="0">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ipz80</t>
+          <t>ipz82</t>
         </is>
       </c>
       <c r="B94" s="23">
@@ -1333,7 +1333,7 @@
     <row r="95" spans="1:2" s="0" outlineLevel="0">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ipz81</t>
+          <t>ipz83</t>
         </is>
       </c>
       <c r="B95" s="23">
@@ -1343,7 +1343,7 @@
     <row r="96" spans="1:2" s="0" outlineLevel="0">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ipz82</t>
+          <t>ipz84</t>
         </is>
       </c>
       <c r="B96" s="23">
@@ -1353,7 +1353,7 @@
     <row r="97" spans="1:2" s="0" outlineLevel="0">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ipz83</t>
+          <t>ipz85</t>
         </is>
       </c>
       <c r="B97" s="23">
@@ -1363,7 +1363,7 @@
     <row r="98" spans="1:2" s="0" outlineLevel="0">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ipz84</t>
+          <t>ipz86</t>
         </is>
       </c>
       <c r="B98" s="23">
@@ -1373,7 +1373,7 @@
     <row r="99" spans="1:2" s="0" outlineLevel="0">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ipz85</t>
+          <t>ipz88</t>
         </is>
       </c>
       <c r="B99" s="23">
@@ -1383,7 +1383,7 @@
     <row r="100" spans="1:2" s="0" outlineLevel="0">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ipz86</t>
+          <t>ipz89</t>
         </is>
       </c>
       <c r="B100" s="23">
@@ -1393,7 +1393,7 @@
     <row r="101" spans="1:2" s="0" outlineLevel="0">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ipz88</t>
+          <t>ipz9</t>
         </is>
       </c>
       <c r="B101" s="23">
@@ -1403,7 +1403,7 @@
     <row r="102" spans="1:2" s="0" outlineLevel="0">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ipz89</t>
+          <t>ipz90</t>
         </is>
       </c>
       <c r="B102" s="23">
@@ -1413,7 +1413,7 @@
     <row r="103" spans="1:2" s="0" outlineLevel="0">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ipz9</t>
+          <t>ipz91</t>
         </is>
       </c>
       <c r="B103" s="23">
@@ -1423,7 +1423,7 @@
     <row r="104" spans="1:2" s="0" outlineLevel="0">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ipz90</t>
+          <t>ipz92</t>
         </is>
       </c>
       <c r="B104" s="23">
@@ -1433,7 +1433,7 @@
     <row r="105" spans="1:2" s="0" outlineLevel="0">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ipz91</t>
+          <t>ipz93</t>
         </is>
       </c>
       <c r="B105" s="23">
@@ -1443,7 +1443,7 @@
     <row r="106" spans="1:2" s="0" outlineLevel="0">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ipz92</t>
+          <t>ipz95</t>
         </is>
       </c>
       <c r="B106" s="23">
@@ -1453,7 +1453,7 @@
     <row r="107" spans="1:2" s="0" outlineLevel="0">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ipz93</t>
+          <t>ipz96</t>
         </is>
       </c>
       <c r="B107" s="23">
@@ -1463,7 +1463,7 @@
     <row r="108" spans="1:2" s="0" outlineLevel="0">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ipz95</t>
+          <t>ipz98</t>
         </is>
       </c>
       <c r="B108" s="23">
@@ -1473,7 +1473,7 @@
     <row r="109" spans="1:2" s="0" outlineLevel="0">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ipz96</t>
+          <t>ipz991</t>
         </is>
       </c>
       <c r="B109" s="23">
@@ -1483,70 +1483,30 @@
     <row r="110" spans="1:2" s="0" outlineLevel="0">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ipz97</t>
+          <t>ipz992</t>
         </is>
       </c>
       <c r="B110" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="0" outlineLevel="0">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ipz98</t>
+          <t>ipz993</t>
         </is>
       </c>
       <c r="B111" s="23">
-        <v>2000</v>
+        <v>99993</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="0" outlineLevel="0">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ipz99</t>
+          <t>ipz999</t>
         </is>
       </c>
       <c r="B112" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="0" outlineLevel="0">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>ipz991</t>
-        </is>
-      </c>
-      <c r="B113" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" s="0" outlineLevel="0">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>ipz992</t>
-        </is>
-      </c>
-      <c r="B114" s="23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" s="0" outlineLevel="0">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>ipz993</t>
-        </is>
-      </c>
-      <c r="B115" s="23">
-        <v>99993</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" s="0" outlineLevel="0">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>ipz999</t>
-        </is>
-      </c>
-      <c r="B116" s="23">
         <v>99999</v>
       </c>
     </row>
